--- a/명명 설명 문서.xlsx
+++ b/명명 설명 문서.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82107\Unity Projects\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90F7708-F252-4324-9F81-EE0C051C47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E415D6BF-D780-4AD2-8A4B-D358C8356889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BE43F53-0797-44EF-8F5D-EEEC777C8006}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="16476" windowHeight="12336" activeTab="1" xr2:uid="{1BE43F53-0797-44EF-8F5D-EEEC777C8006}"/>
   </bookViews>
   <sheets>
     <sheet name="CameraMove" sheetId="1" r:id="rId1"/>
+    <sheet name="PlayerControl" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
   <si>
     <t>lookSensitivity</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -127,6 +150,163 @@
   </si>
   <si>
     <t>나중에 카메라 시점을 바꿀 수도 있어서 일단 분리해둠!!</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveDirectionX</t>
+  </si>
+  <si>
+    <t>moveDirectionZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveHorizontal</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerControl</t>
+  </si>
+  <si>
+    <t>moveVertical</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+  </si>
+  <si>
+    <t>함수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>walkSpeed</t>
+  </si>
+  <si>
+    <t>lookSensitivity</t>
+  </si>
+  <si>
+    <t>theCamera</t>
+  </si>
+  <si>
+    <t>myRigid</t>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rigidbody</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 움직임 관련 클래스</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기 속도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player에서 카메라 받을 객체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player에서 Rigidbody 받을 객체</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player 이동 함수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 좌우(X축) 입력 값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드 상하(Z축) 입력 값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X축으로 움직일 값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z축으로 움직일 값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력받은 값으로 계산한, 최종 이동속도</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;캐릭터 이동에 추가해야 할 부분&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이동 : Player는 항상 지면을 따라 이동 (점프존재X)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 1인칭, 3인칭 카메라 추가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterRotation</t>
+  </si>
+  <si>
+    <t>CharacterRotation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 좌우 회전 함수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yRotaion</t>
+  </si>
+  <si>
+    <t>characterRotationY</t>
+  </si>
+  <si>
+    <t>입력받은 값으로 계산한, 최종 회전각</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 좌우(x축) 입력 값</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 카메라를 하위로 두어 함께 이동 할 수 있도록 함</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +363,76 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +466,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -344,6 +610,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -362,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,9 +753,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,6 +772,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -418,6 +874,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFEB9C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -726,22 +1187,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46C49E-AE2E-4B4F-980B-B7BE7FD60E84}">
-  <dimension ref="A2:G12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" customWidth="1"/>
     <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="16.59765625" customWidth="1"/>
     <col min="7" max="7" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30.6" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A4),FIND("]",CELL("filename",A4))+1,100)</f>
+        <v>CameraMove</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -754,11 +1229,11 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,11 +1243,11 @@
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -782,11 +1257,11 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
@@ -796,26 +1271,26 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="8"/>
+      <c r="G6" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="12" t="s">
+    <row r="7" spans="1:7">
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -825,35 +1300,339 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
-      <c r="D12" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" s="13"/>
+      <c r="D12" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="https://youtu.be/uandR5M30ho" xr:uid="{D2FFB500-AB62-40A6-A1B5-BD3EA419280B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15B9317-579D-4079-8EE6-BFB542C82A19}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="28.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.796875" style="4"/>
+    <col min="8" max="8" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.6" customHeight="1">
+      <c r="A1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C1" ca="1">MID(CELL("filename",A4),FIND("]",CELL("filename",A4))+1,100)</f>
+        <v>PlayerControl</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.2">
+      <c r="A2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="29"/>
+      <c r="B5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19"/>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="28"/>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="40"/>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="40"/>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://youtu.be/uandR5M30ho" xr:uid="{F61B91DB-D2C2-405C-BBB4-C25CA701123A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/명명 설명 문서.xlsx
+++ b/명명 설명 문서.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82107\Unity Projects\GraduationProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E415D6BF-D780-4AD2-8A4B-D358C8356889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA28FC1-AAD8-47E4-AD8E-826711A5227F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="16476" windowHeight="12336" activeTab="1" xr2:uid="{1BE43F53-0797-44EF-8F5D-EEEC777C8006}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BE43F53-0797-44EF-8F5D-EEEC777C8006}"/>
   </bookViews>
   <sheets>
-    <sheet name="CameraMove" sheetId="1" r:id="rId1"/>
-    <sheet name="PlayerControl" sheetId="3" r:id="rId2"/>
+    <sheet name="PlayerControl" sheetId="3" r:id="rId1"/>
+    <sheet name="CameraMove" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>lookSensitivity</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -88,10 +88,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>지역 변수/지역 함수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>firstPersonView</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -307,6 +303,14 @@
   </si>
   <si>
     <t>* 카메라를 하위로 두어 함께 이동 할 수 있도록 함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraMove</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 움직임 관련 클래스</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +435,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -485,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -591,26 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -646,17 +638,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -713,6 +694,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -731,26 +723,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -768,16 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
@@ -789,40 +760,16 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,25 +784,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1">
@@ -863,6 +801,63 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1186,147 +1181,530 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15B9317-579D-4079-8EE6-BFB542C82A19}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.75" style="2"/>
+    <col min="8" max="8" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30.6" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="28" t="str" cm="1">
+        <f t="array" aca="1" ref="C1" ca="1">MID(CELL("filename",A4),FIND("]",CELL("filename",A4))+1,100)</f>
+        <v>PlayerControl</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25">
+      <c r="A2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17.45" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="40"/>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="40"/>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="41"/>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="15"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="40"/>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="40"/>
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="40"/>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="41"/>
+      <c r="B16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="41"/>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://youtu.be/uandR5M30ho" xr:uid="{F61B91DB-D2C2-405C-BBB4-C25CA701123A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46C49E-AE2E-4B4F-980B-B7BE7FD60E84}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" customWidth="1"/>
-    <col min="3" max="3" width="40.5" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="35.125" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
     <col min="7" max="7" width="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.6" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="15" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A4),FIND("]",CELL("filename",A4))+1,100)</f>
-        <v>CameraMove</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25">
+      <c r="A2" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="40"/>
+      <c r="B5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41"/>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="15"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="38"/>
+      <c r="B11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="G6" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="C12" s="13"/>
-      <c r="D12" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -1334,305 +1712,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15B9317-579D-4079-8EE6-BFB542C82A19}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.3984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20" style="4" customWidth="1"/>
-    <col min="6" max="7" width="8.796875" style="4"/>
-    <col min="8" max="8" width="73" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30.6" customHeight="1">
-      <c r="A1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="str" cm="1">
-        <f t="array" aca="1" ref="C1" ca="1">MID(CELL("filename",A4),FIND("]",CELL("filename",A4))+1,100)</f>
-        <v>PlayerControl</v>
-      </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.2">
-      <c r="A2" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="29"/>
-      <c r="B5" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19"/>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="28"/>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="30"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="40"/>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:B11"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://youtu.be/uandR5M30ho" xr:uid="{F61B91DB-D2C2-405C-BBB4-C25CA701123A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>